--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">HOSTNAME</t>
   </si>
@@ -31,7 +31,13 @@
     <t xml:space="preserve">GIGABIT01</t>
   </si>
   <si>
-    <t xml:space="preserve">ROUTER1</t>
+    <t xml:space="preserve">GIGABIT02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGABIT03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIR-3V</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.1.1</t>
@@ -40,7 +46,13 @@
     <t xml:space="preserve">10.0.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">ROUTER2</t>
+    <t xml:space="preserve">10.20.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.30.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIO-3V</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.2.1</t>
@@ -49,13 +61,25 @@
     <t xml:space="preserve">10.0.2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">ROUTER3</t>
+    <t xml:space="preserve">10.20.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.30.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEG-3V</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.3.1</t>
   </si>
   <si>
     <t xml:space="preserve">10.0.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.20.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.30.3.1</t>
   </si>
 </sst>
 </file>
@@ -65,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -87,6 +111,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -142,6 +180,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -164,7 +210,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -174,51 +220,72 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
